--- a/data/species_lists/Land- en freshwater molluscs Northern Spain.xlsx
+++ b/data/species_lists/Land- en freshwater molluscs Northern Spain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\data\species_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\landsnails-occurrences\data\species_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="534" documentId="13_ncr:1_{C9372428-8ECE-4D62-B5B2-9E20A3A75ACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BCD1FABB-0B5D-45BE-85E6-0B7E9D4D8C14}"/>
+  <xr:revisionPtr revIDLastSave="542" documentId="13_ncr:1_{C9372428-8ECE-4D62-B5B2-9E20A3A75ACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{25C5570D-177A-486A-B383-A861178A909F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="1632" windowWidth="23040" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="land" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="276">
   <si>
     <t>Chondrinidae</t>
   </si>
@@ -614,9 +614,6 @@
     <t>asturica</t>
   </si>
   <si>
-    <t>(Raven, 1990)</t>
-  </si>
-  <si>
     <t>Megalomastomatidae</t>
   </si>
   <si>
@@ -767,9 +764,6 @@
     <t>(Lamarck, 1822)</t>
   </si>
   <si>
-    <t>Helicella itala pampelonensis</t>
-  </si>
-  <si>
     <t>pampelonensis</t>
   </si>
   <si>
@@ -848,16 +842,31 @@
     <t>(Crosse, 1864)</t>
   </si>
   <si>
-    <t>Chondrina cf. kobelti</t>
-  </si>
-  <si>
-    <t>cf. kobelti</t>
-  </si>
-  <si>
     <t>Cochlicopa lubrica</t>
   </si>
   <si>
     <t>lubrica</t>
+  </si>
+  <si>
+    <t>Larraz found itala and pamplonensis syntopic, so two separate species and not subspecies (Han Raven, personal comment)</t>
+  </si>
+  <si>
+    <t>Helicella pampelonensis</t>
+  </si>
+  <si>
+    <t>(Gofas, 1989)</t>
+  </si>
+  <si>
+    <t>Raven, 1990</t>
+  </si>
+  <si>
+    <t>Chondrina kobelti</t>
+  </si>
+  <si>
+    <t>kobelti</t>
+  </si>
+  <si>
+    <t>(Westerlund, 1887)</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A60"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
@@ -1294,7 +1303,7 @@
       </c>
       <c r="F2"/>
       <c r="G2" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1302,16 +1311,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>31</v>
@@ -1335,7 +1344,7 @@
       </c>
       <c r="F4"/>
       <c r="G4" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1346,13 +1355,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1373,7 +1385,7 @@
       </c>
       <c r="F6"/>
       <c r="G6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1384,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1401,7 +1413,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>89</v>
@@ -1414,7 +1426,7 @@
       </c>
       <c r="F8"/>
       <c r="G8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1422,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>117</v>
@@ -1437,7 +1449,7 @@
         <v>145</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1445,20 +1457,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1466,7 +1478,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>105</v>
@@ -1479,7 +1491,7 @@
       </c>
       <c r="F11"/>
       <c r="G11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1487,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>111</v>
@@ -1500,7 +1512,7 @@
       </c>
       <c r="F12"/>
       <c r="G12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1540,7 +1552,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1548,7 +1560,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>112</v>
@@ -1561,7 +1573,7 @@
       </c>
       <c r="F15"/>
       <c r="G15" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H15" s="5"/>
     </row>
@@ -1583,7 +1595,7 @@
       </c>
       <c r="F16"/>
       <c r="G16" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1603,7 +1615,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1645,7 +1657,7 @@
       </c>
       <c r="F19"/>
       <c r="G19" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1666,7 +1678,7 @@
       </c>
       <c r="F20"/>
       <c r="G20" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1698,7 +1710,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>137</v>
@@ -1721,19 +1733,19 @@
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1754,7 +1766,7 @@
       </c>
       <c r="F24"/>
       <c r="G24" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1775,7 +1787,7 @@
       </c>
       <c r="F25"/>
       <c r="G25" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1817,7 +1829,7 @@
       </c>
       <c r="F27"/>
       <c r="G27" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1859,7 +1871,7 @@
       </c>
       <c r="F29"/>
       <c r="G29" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1880,7 +1892,7 @@
       </c>
       <c r="F30"/>
       <c r="G30" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -1889,7 +1901,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>108</v>
@@ -1902,7 +1914,7 @@
       </c>
       <c r="F31"/>
       <c r="G31" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1943,7 +1955,7 @@
         <v>147</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1964,7 +1976,7 @@
       </c>
       <c r="F34"/>
       <c r="G34" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1985,10 +1997,10 @@
       </c>
       <c r="F35"/>
       <c r="G35" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2030,7 +2042,7 @@
       </c>
       <c r="F37"/>
       <c r="G37" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2038,7 +2050,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>189</v>
@@ -2051,7 +2063,7 @@
       </c>
       <c r="F38"/>
       <c r="G38" s="2" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2059,20 +2071,20 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="2" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="H39" s="5"/>
     </row>
@@ -2081,19 +2093,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2101,20 +2113,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2122,20 +2134,20 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2158,7 +2170,7 @@
         <v>157</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2179,7 +2191,7 @@
       </c>
       <c r="F44"/>
       <c r="G44" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2222,7 +2234,7 @@
       </c>
       <c r="F46"/>
       <c r="G46" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H46" s="5"/>
     </row>
@@ -2234,13 +2246,13 @@
         <v>27</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>3</v>
@@ -2252,7 +2264,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>91</v>
@@ -2265,7 +2277,7 @@
       </c>
       <c r="F48"/>
       <c r="G48" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H48" s="5"/>
     </row>
@@ -2274,7 +2286,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>103</v>
@@ -2295,20 +2307,20 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>169</v>
       </c>
       <c r="E50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2349,7 +2361,7 @@
       </c>
       <c r="F52"/>
       <c r="G52" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2370,7 +2382,7 @@
       </c>
       <c r="F53"/>
       <c r="G53" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2378,7 +2390,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>92</v>
@@ -2391,7 +2403,7 @@
       </c>
       <c r="F54"/>
       <c r="G54" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2412,7 +2424,7 @@
       </c>
       <c r="F55"/>
       <c r="G55" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H55" s="5"/>
     </row>
@@ -2434,7 +2446,7 @@
       </c>
       <c r="F56"/>
       <c r="G56" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2455,7 +2467,7 @@
       </c>
       <c r="F57"/>
       <c r="G57" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H57" s="5"/>
     </row>
@@ -2498,7 +2510,7 @@
       </c>
       <c r="F59"/>
       <c r="G59" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2519,7 +2531,7 @@
       </c>
       <c r="F60"/>
       <c r="G60" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2611,13 +2623,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2628,7 +2640,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>76</v>
@@ -2637,7 +2649,7 @@
         <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2645,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>109</v>
@@ -2697,7 +2709,7 @@
         <v>122</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2705,16 +2717,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
         <v>263</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" t="s">
-        <v>265</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -2723,7 +2735,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>116</v>
@@ -2744,13 +2756,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -2759,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>88</v>
@@ -2771,7 +2783,7 @@
         <v>165</v>
       </c>
       <c r="G10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2806,7 +2818,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
